--- a/outputs-r202/p__Bacteroidota.xlsx
+++ b/outputs-r202/p__Bacteroidota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L356"/>
+  <dimension ref="A1:M356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -663,6 +683,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -705,6 +730,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -747,6 +777,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -789,6 +824,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -831,6 +871,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -873,6 +918,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -915,6 +965,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>c__UBA10030(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -957,6 +1012,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -999,6 +1059,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1041,6 +1106,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1083,6 +1153,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1125,6 +1200,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1167,6 +1247,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1209,6 +1294,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1251,6 +1341,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1293,6 +1388,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1335,6 +1435,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1377,6 +1482,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1419,6 +1529,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1461,6 +1576,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1503,6 +1623,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1545,6 +1670,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1587,6 +1717,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1629,6 +1764,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1671,6 +1811,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1713,6 +1858,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1755,6 +1905,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1797,6 +1952,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1839,6 +1999,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1881,6 +2046,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1923,6 +2093,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1965,6 +2140,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2007,6 +2187,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2049,6 +2234,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2091,6 +2281,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2133,6 +2328,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2175,6 +2375,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2217,6 +2422,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2259,6 +2469,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2301,6 +2516,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2343,6 +2563,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2385,6 +2610,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2427,6 +2657,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2469,6 +2704,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2511,6 +2751,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2553,6 +2798,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2595,6 +2845,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2637,6 +2892,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2679,6 +2939,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2721,6 +2986,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2763,6 +3033,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2805,6 +3080,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2847,6 +3127,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2889,6 +3174,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2931,6 +3221,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2973,6 +3268,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3015,6 +3315,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3057,6 +3362,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3099,6 +3409,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3141,6 +3456,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -3183,6 +3503,11 @@
           <t>c__Chlorobia</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>c__Chlorobia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3225,6 +3550,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3267,6 +3597,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3309,6 +3644,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3351,6 +3691,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3393,6 +3738,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3435,6 +3785,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3477,6 +3832,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3519,6 +3879,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3561,6 +3926,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3603,6 +3973,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3645,6 +4020,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3687,6 +4067,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3729,6 +4114,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3771,6 +4161,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3813,6 +4208,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3855,6 +4255,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>c__UBA10030(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3897,6 +4302,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3939,6 +4349,11 @@
           <t>c__Chlorobia</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>c__Chlorobia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3981,6 +4396,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -4023,6 +4443,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -4065,6 +4490,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -4107,6 +4537,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4149,6 +4584,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4191,6 +4631,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -4233,6 +4678,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>c__UBA10030</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -4275,6 +4725,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -4317,6 +4772,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -4359,6 +4819,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -4401,6 +4866,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -4443,6 +4913,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -4485,6 +4960,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -4527,6 +5007,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -4569,6 +5054,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -4611,6 +5101,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -4653,6 +5148,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -4695,6 +5195,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4737,6 +5242,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -4779,6 +5289,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -4821,6 +5336,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4863,6 +5383,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4905,6 +5430,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -4947,6 +5477,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4989,6 +5524,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -5031,6 +5571,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -5073,6 +5618,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>c__UBA10030(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -5115,6 +5665,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -5157,6 +5712,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -5199,6 +5759,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -5241,6 +5806,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -5283,6 +5853,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -5325,6 +5900,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -5367,6 +5947,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -5409,6 +5994,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -5451,6 +6041,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -5493,6 +6088,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -5535,6 +6135,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -5577,6 +6182,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -5619,6 +6229,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -5661,6 +6276,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -5703,6 +6323,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -5745,6 +6370,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -5787,6 +6417,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -5829,6 +6464,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -5871,6 +6511,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -5913,6 +6558,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -5955,6 +6605,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -5997,6 +6652,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -6039,6 +6699,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -6081,6 +6746,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -6123,6 +6793,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -6165,6 +6840,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -6207,6 +6887,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -6249,6 +6934,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -6291,6 +6981,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -6333,6 +7028,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -6375,6 +7075,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -6417,6 +7122,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -6459,6 +7169,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -6501,6 +7216,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -6543,6 +7263,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -6585,6 +7310,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -6627,6 +7357,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -6669,6 +7404,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -6711,6 +7451,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -6753,6 +7498,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -6795,6 +7545,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -6837,6 +7592,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -6879,6 +7639,11 @@
           <t>c__Kapabacteria</t>
         </is>
       </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>c__Kapabacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -6921,6 +7686,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -6963,6 +7733,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -7005,6 +7780,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -7047,6 +7827,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -7089,6 +7874,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -7131,6 +7921,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -7173,6 +7968,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -7215,6 +8015,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -7257,6 +8062,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -7299,6 +8109,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -7341,6 +8156,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -7383,6 +8203,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -7425,6 +8250,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -7467,6 +8297,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -7509,6 +8344,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -7551,6 +8391,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -7593,6 +8438,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -7635,6 +8485,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -7677,6 +8532,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -7719,6 +8579,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -7761,6 +8626,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -7803,6 +8673,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -7845,6 +8720,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -7887,6 +8767,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -7929,6 +8814,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -7971,6 +8861,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -8013,6 +8908,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>c__UBA10030(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -8055,6 +8955,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -8097,6 +9002,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -8139,6 +9049,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -8181,6 +9096,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -8223,6 +9143,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -8265,6 +9190,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -8307,6 +9237,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -8349,6 +9284,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -8391,6 +9331,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -8433,6 +9378,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -8475,6 +9425,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -8517,6 +9472,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -8559,6 +9519,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -8601,6 +9566,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -8643,6 +9613,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -8685,6 +9660,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -8727,6 +9707,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -8769,6 +9754,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -8811,6 +9801,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -8853,6 +9848,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -8895,6 +9895,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -8937,6 +9942,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -8979,6 +9989,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -9021,6 +10036,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -9063,6 +10083,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -9105,6 +10130,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -9147,6 +10177,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -9189,6 +10224,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -9231,6 +10271,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -9273,6 +10318,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -9315,6 +10365,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -9357,6 +10412,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -9399,6 +10459,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -9441,6 +10506,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -9483,6 +10553,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -9525,6 +10600,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -9567,6 +10647,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -9609,6 +10694,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -9651,6 +10741,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -9693,6 +10788,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -9735,6 +10835,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -9777,6 +10882,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -9819,6 +10929,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -9861,6 +10976,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -9903,6 +11023,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -9945,6 +11070,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -9987,6 +11117,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -10029,6 +11164,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -10071,6 +11211,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -10113,6 +11258,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -10155,6 +11305,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -10197,6 +11352,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -10239,6 +11399,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -10281,6 +11446,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -10323,6 +11493,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -10365,6 +11540,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -10407,6 +11587,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -10449,6 +11634,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -10491,6 +11681,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -10533,6 +11728,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -10575,6 +11775,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -10617,6 +11822,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -10659,6 +11869,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -10701,6 +11916,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -10743,6 +11963,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -10785,6 +12010,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -10827,6 +12057,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -10869,6 +12104,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -10911,6 +12151,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -10953,6 +12198,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -10995,6 +12245,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -11037,6 +12292,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -11079,6 +12339,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -11121,6 +12386,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -11163,6 +12433,11 @@
           <t>c__Chlorobia</t>
         </is>
       </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -11205,6 +12480,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -11247,6 +12527,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -11289,6 +12574,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -11331,6 +12621,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -11373,6 +12668,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -11415,6 +12715,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -11457,6 +12762,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -11499,6 +12809,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -11541,6 +12856,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -11583,6 +12903,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -11625,6 +12950,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -11667,6 +12997,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -11709,6 +13044,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -11751,6 +13091,11 @@
           <t>c__SZUA-365</t>
         </is>
       </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>c__SZUA-365(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -11793,6 +13138,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -11835,6 +13185,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -11877,6 +13232,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -11919,6 +13279,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -11961,6 +13326,11 @@
           <t>c__Chlorobia</t>
         </is>
       </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>c__Chlorobia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -12003,6 +13373,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -12045,6 +13420,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -12087,6 +13467,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -12129,6 +13514,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -12171,6 +13561,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -12213,6 +13608,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -12255,6 +13655,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -12297,6 +13702,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -12339,6 +13749,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -12381,6 +13796,11 @@
           <t>c__Chlorobia</t>
         </is>
       </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -12423,6 +13843,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -12465,6 +13890,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -12507,6 +13937,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -12549,6 +13984,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -12591,6 +14031,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -12633,6 +14078,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -12675,6 +14125,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -12717,6 +14172,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -12759,6 +14219,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -12801,6 +14266,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -12843,6 +14313,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -12885,6 +14360,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -12927,6 +14407,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -12969,6 +14454,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -13011,6 +14501,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -13053,6 +14548,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -13095,6 +14595,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -13137,6 +14642,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -13179,6 +14689,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -13221,6 +14736,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -13263,6 +14783,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -13305,6 +14830,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -13347,6 +14877,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -13389,6 +14924,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -13431,6 +14971,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -13473,6 +15018,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -13515,6 +15065,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -13557,6 +15112,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -13599,6 +15159,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -13641,6 +15206,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -13683,6 +15253,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -13725,6 +15300,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -13767,6 +15347,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -13809,6 +15394,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -13851,6 +15441,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -13893,6 +15488,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -13935,6 +15535,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -13977,6 +15582,11 @@
           <t>c__Chlorobia</t>
         </is>
       </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>c__Chlorobia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -14019,6 +15629,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -14061,6 +15676,11 @@
           <t>c__Kapabacteria</t>
         </is>
       </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>c__Kapabacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -14103,6 +15723,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -14145,6 +15770,11 @@
           <t>c__SZUA-365</t>
         </is>
       </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>c__SZUA-365(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -14187,6 +15817,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -14229,6 +15864,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -14271,6 +15911,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -14313,6 +15958,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -14355,6 +16005,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -14397,6 +16052,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -14439,6 +16099,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -14481,6 +16146,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -14523,6 +16193,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -14565,6 +16240,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -14607,6 +16287,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -14649,6 +16334,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -14691,6 +16381,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -14733,6 +16428,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -14775,6 +16475,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -14817,6 +16522,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>c__UBA10030(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -14859,6 +16569,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -14901,6 +16616,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -14943,6 +16663,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -14985,6 +16710,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -15027,6 +16757,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -15069,6 +16804,11 @@
           <t>c__Kapabacteria</t>
         </is>
       </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>c__Kapabacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -15111,6 +16851,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -15153,6 +16898,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -15195,6 +16945,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -15237,6 +16992,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -15279,6 +17039,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -15321,6 +17086,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -15363,6 +17133,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -15401,6 +17176,11 @@
         <v>0.9970905297782571</v>
       </c>
       <c r="L356" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>

--- a/outputs-r202/p__Bacteroidota.xlsx
+++ b/outputs-r202/p__Bacteroidota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L309"/>
+  <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -663,6 +683,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -705,6 +730,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -747,6 +777,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -789,6 +824,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -831,6 +871,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -873,6 +918,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>c__UBA10030(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -915,6 +965,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -957,6 +1012,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -999,6 +1059,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1041,6 +1106,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1083,6 +1153,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1125,6 +1200,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1167,6 +1247,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1209,6 +1294,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1251,6 +1341,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1293,6 +1388,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1335,6 +1435,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1377,6 +1482,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1419,6 +1529,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1461,6 +1576,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1503,6 +1623,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1545,6 +1670,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1587,6 +1717,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1629,6 +1764,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1671,6 +1811,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1713,6 +1858,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1755,6 +1905,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1797,6 +1952,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1839,6 +1999,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1881,6 +2046,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1923,6 +2093,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1965,6 +2140,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2007,6 +2187,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2049,6 +2234,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2091,6 +2281,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2133,6 +2328,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2175,6 +2375,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2217,6 +2422,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2259,6 +2469,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2301,6 +2516,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2343,6 +2563,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2385,6 +2610,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2427,6 +2657,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2469,6 +2704,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2511,6 +2751,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2553,6 +2798,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2595,6 +2845,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2637,6 +2892,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2679,6 +2939,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2721,6 +2986,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2763,6 +3033,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2805,6 +3080,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2847,6 +3127,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2889,6 +3174,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2931,6 +3221,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2973,6 +3268,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3015,6 +3315,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3057,6 +3362,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3099,6 +3409,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3141,6 +3456,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -3183,6 +3503,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3225,6 +3550,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3267,6 +3597,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3309,6 +3644,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3351,6 +3691,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3393,6 +3738,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3435,6 +3785,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3477,6 +3832,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3519,6 +3879,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3561,6 +3926,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3603,6 +3973,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3645,6 +4020,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3687,6 +4067,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3729,6 +4114,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3771,6 +4161,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3813,6 +4208,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3855,6 +4255,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3897,6 +4302,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3939,6 +4349,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3981,6 +4396,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -4023,6 +4443,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -4065,6 +4490,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -4107,6 +4537,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4149,6 +4584,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4191,6 +4631,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -4233,6 +4678,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -4275,6 +4725,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -4317,6 +4772,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -4359,6 +4819,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -4401,6 +4866,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -4443,6 +4913,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -4485,6 +4960,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -4527,6 +5007,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -4569,6 +5054,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -4611,6 +5101,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -4653,6 +5148,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -4695,6 +5195,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4737,6 +5242,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -4779,6 +5289,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -4821,6 +5336,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4863,6 +5383,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4905,6 +5430,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -4947,6 +5477,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4989,6 +5524,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -5031,6 +5571,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -5073,6 +5618,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -5115,6 +5665,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -5157,6 +5712,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -5199,6 +5759,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -5241,6 +5806,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -5283,6 +5853,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -5325,6 +5900,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -5367,6 +5947,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -5409,6 +5994,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -5451,6 +6041,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -5493,6 +6088,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -5535,6 +6135,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -5577,6 +6182,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -5619,6 +6229,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -5661,6 +6276,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -5703,6 +6323,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -5745,6 +6370,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -5787,6 +6417,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -5829,6 +6464,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -5871,6 +6511,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -5913,6 +6558,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -5955,6 +6605,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -5997,6 +6652,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -6039,6 +6699,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -6081,6 +6746,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -6123,6 +6793,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -6165,6 +6840,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -6207,6 +6887,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -6249,6 +6934,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -6291,6 +6981,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -6333,6 +7028,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -6375,6 +7075,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -6417,6 +7122,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -6459,6 +7169,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -6501,6 +7216,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -6543,6 +7263,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -6585,6 +7310,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -6627,6 +7357,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -6669,6 +7404,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -6711,6 +7451,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -6753,6 +7498,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -6795,6 +7545,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -6837,6 +7592,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -6879,6 +7639,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -6921,6 +7686,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -6963,6 +7733,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -7005,6 +7780,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -7047,6 +7827,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -7089,6 +7874,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -7131,6 +7921,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -7173,6 +7968,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -7215,6 +8015,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -7257,6 +8062,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -7299,6 +8109,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -7341,6 +8156,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -7383,6 +8203,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -7425,6 +8250,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -7467,6 +8297,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -7509,6 +8344,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -7551,6 +8391,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -7593,6 +8438,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -7635,6 +8485,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -7677,6 +8532,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -7719,6 +8579,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -7761,6 +8626,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -7803,6 +8673,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -7845,6 +8720,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -7887,6 +8767,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -7929,6 +8814,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -7971,6 +8861,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -8013,6 +8908,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -8055,6 +8955,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -8097,6 +9002,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -8139,6 +9049,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -8181,6 +9096,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -8223,6 +9143,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -8265,6 +9190,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -8307,6 +9237,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -8349,6 +9284,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -8391,6 +9331,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -8433,6 +9378,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -8475,6 +9425,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -8517,6 +9472,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -8559,6 +9519,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -8601,6 +9566,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -8643,6 +9613,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -8685,6 +9660,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -8727,6 +9707,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -8769,6 +9754,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -8811,6 +9801,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -8853,6 +9848,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -8895,6 +9895,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -8937,6 +9942,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -8979,6 +9989,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -9021,6 +10036,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -9063,6 +10083,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -9105,6 +10130,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -9147,6 +10177,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -9189,6 +10224,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -9231,6 +10271,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -9273,6 +10318,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -9315,6 +10365,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -9357,6 +10412,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -9399,6 +10459,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -9441,6 +10506,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -9483,6 +10553,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -9525,6 +10600,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -9567,6 +10647,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -9609,6 +10694,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -9651,6 +10741,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -9693,6 +10788,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -9735,6 +10835,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -9777,6 +10882,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -9819,6 +10929,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -9861,6 +10976,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -9903,6 +11023,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -9945,6 +11070,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -9987,6 +11117,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -10029,6 +11164,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -10071,6 +11211,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -10113,6 +11258,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -10155,6 +11305,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -10197,6 +11352,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -10239,6 +11399,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -10281,6 +11446,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -10323,6 +11493,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -10365,6 +11540,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -10407,6 +11587,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -10449,6 +11634,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -10491,6 +11681,11 @@
           <t>c__SZUA-365</t>
         </is>
       </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>c__SZUA-365(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -10533,6 +11728,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -10575,6 +11775,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -10617,6 +11822,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -10659,6 +11869,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -10701,6 +11916,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -10743,6 +11963,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -10785,6 +12010,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -10827,6 +12057,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -10869,6 +12104,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -10911,6 +12151,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -10953,6 +12198,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -10995,6 +12245,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -11037,6 +12292,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -11079,6 +12339,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -11121,6 +12386,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -11163,6 +12433,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -11205,6 +12480,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -11247,6 +12527,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -11289,6 +12574,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -11331,6 +12621,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -11373,6 +12668,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -11415,6 +12715,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -11457,6 +12762,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -11499,6 +12809,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -11541,6 +12856,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -11583,6 +12903,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -11625,6 +12950,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -11667,6 +12997,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -11709,6 +13044,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -11751,6 +13091,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -11793,6 +13138,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -11835,6 +13185,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -11877,6 +13232,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -11919,6 +13279,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -11961,6 +13326,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -12003,6 +13373,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -12045,6 +13420,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -12087,6 +13467,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -12129,6 +13514,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -12171,6 +13561,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -12213,6 +13608,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -12255,6 +13655,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -12297,6 +13702,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -12339,6 +13749,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -12381,6 +13796,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -12423,6 +13843,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -12465,6 +13890,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -12507,6 +13937,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -12549,6 +13984,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -12591,6 +14031,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -12633,6 +14078,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -12675,6 +14125,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -12717,6 +14172,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -12759,6 +14219,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -12801,6 +14266,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -12843,6 +14313,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -12885,6 +14360,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -12927,6 +14407,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -12969,6 +14454,11 @@
           <t>c__UBA10030</t>
         </is>
       </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>c__UBA10030(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -13011,6 +14501,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -13053,6 +14548,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -13095,6 +14595,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -13137,6 +14642,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -13179,6 +14689,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -13221,6 +14736,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -13263,6 +14783,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -13305,6 +14830,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -13347,6 +14877,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -13389,6 +14924,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -13427,6 +14967,11 @@
         <v>0.9961403831280063</v>
       </c>
       <c r="L309" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
